--- a/MainTop/23.08.2024/имена_печать.xlsx
+++ b/MainTop/23.08.2024/имена_печать.xlsx
@@ -353,10 +353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,7 +386,7 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -422,6 +422,10 @@
       <c r="J2" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">J2*2</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -455,6 +459,10 @@
       <c r="J3" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">J3*2</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -488,6 +496,10 @@
       <c r="J4" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">J4*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -521,6 +533,10 @@
       <c r="J5" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -554,6 +570,10 @@
       <c r="J6" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">J6*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -587,6 +607,10 @@
       <c r="J7" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">J7*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -620,6 +644,10 @@
       <c r="J8" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">J8*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -653,6 +681,10 @@
       <c r="J9" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">J9*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -686,6 +718,10 @@
       <c r="J10" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">J10*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -719,6 +755,10 @@
       <c r="J11" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">J11*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -752,6 +792,10 @@
       <c r="J12" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">J12*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -785,6 +829,10 @@
       <c r="J13" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">J13*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -818,6 +866,10 @@
       <c r="J14" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">J14*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -851,6 +903,10 @@
       <c r="J15" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">J15*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -884,6 +940,10 @@
       <c r="J16" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">J16*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -917,6 +977,10 @@
       <c r="J17" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">J17*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -950,6 +1014,10 @@
       <c r="J18" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">J18*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -983,6 +1051,10 @@
       <c r="J19" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">J19*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1016,6 +1088,10 @@
       <c r="J20" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">J20*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1049,6 +1125,10 @@
       <c r="J21" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">J21*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1082,6 +1162,10 @@
       <c r="J22" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">J22*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1115,6 +1199,10 @@
       <c r="J23" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">J23*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1148,6 +1236,10 @@
       <c r="J24" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">J24*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1181,6 +1273,10 @@
       <c r="J25" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">J25*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1214,6 +1310,10 @@
       <c r="J26" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">J26*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1247,6 +1347,10 @@
       <c r="J27" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">J27*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1280,6 +1384,10 @@
       <c r="J28" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">J28*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1313,6 +1421,10 @@
       <c r="J29" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">J29*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1346,6 +1458,10 @@
       <c r="J30" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">J30*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1379,6 +1495,10 @@
       <c r="J31" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">J31*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1412,6 +1532,10 @@
       <c r="J32" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">J32*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1445,6 +1569,10 @@
       <c r="J33" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">J33*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1478,6 +1606,10 @@
       <c r="J34" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">J34*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1511,6 +1643,10 @@
       <c r="J35" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">J35*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1544,6 +1680,10 @@
       <c r="J36" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">J36*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -1577,6 +1717,10 @@
       <c r="J37" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">J37*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -1610,6 +1754,10 @@
       <c r="J38" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">J38*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1643,6 +1791,10 @@
       <c r="J39" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">J39*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1676,6 +1828,10 @@
       <c r="J40" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">J40*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1709,6 +1865,10 @@
       <c r="J41" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">J41*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1742,6 +1902,10 @@
       <c r="J42" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">J42*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1775,6 +1939,10 @@
       <c r="J43" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">J43*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1808,6 +1976,10 @@
       <c r="J44" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">J44*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1841,6 +2013,10 @@
       <c r="J45" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">J45*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -1874,6 +2050,10 @@
       <c r="J46" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">J46*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1907,6 +2087,10 @@
       <c r="J47" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">J47*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1940,6 +2124,10 @@
       <c r="J48" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">J48*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1973,6 +2161,10 @@
       <c r="J49" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">J49*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -2006,6 +2198,10 @@
       <c r="J50" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">J50*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -2039,6 +2235,10 @@
       <c r="J51" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">J51*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -2072,6 +2272,10 @@
       <c r="J52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">J52*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -2105,6 +2309,10 @@
       <c r="J53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">J53*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -2138,6 +2346,10 @@
       <c r="J54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">J54*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -2171,6 +2383,10 @@
       <c r="J55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">J55*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -2204,6 +2420,10 @@
       <c r="J56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">J56*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -2237,6 +2457,10 @@
       <c r="J57" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">J57*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -2270,6 +2494,10 @@
       <c r="J58" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">J58*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -2303,6 +2531,10 @@
       <c r="J59" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">J59*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -2336,6 +2568,10 @@
       <c r="J60" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">J60*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -2369,6 +2605,10 @@
       <c r="J61" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">J61*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -2402,6 +2642,10 @@
       <c r="J62" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">J62*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -2435,6 +2679,10 @@
       <c r="J63" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">J63*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -2468,6 +2716,10 @@
       <c r="J64" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">J64*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -2501,6 +2753,10 @@
       <c r="J65" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">J65*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -2534,6 +2790,10 @@
       <c r="J66" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">J66*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -2567,6 +2827,10 @@
       <c r="J67" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K67" s="0" t="n">
+        <f aca="false">J67*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -2599,6 +2863,10 @@
       </c>
       <c r="J68" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">J68*2</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
